--- a/database/data_to_add/re_do/Brown_1938_tbl3.xlsx
+++ b/database/data_to_add/re_do/Brown_1938_tbl3.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\re_do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC8ED37-743F-4742-A84E-9D088D9CC204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6253C0-44C6-4B4B-9697-9FF1C8749B43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -296,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -307,6 +313,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,18 +597,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -789,23 +797,25 @@
       <c r="AE2" s="5">
         <v>43</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2" s="8">
         <v>0.15</v>
       </c>
-      <c r="AG2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>26</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>2</v>
-      </c>
+      <c r="AG2" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -878,23 +888,25 @@
       <c r="AE3" s="3">
         <v>2.15</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="8">
         <v>7</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="8">
         <v>7</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="8">
         <v>38</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="8">
         <v>14</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -967,20 +979,23 @@
       <c r="AE4" s="3">
         <v>39.799999999999997</v>
       </c>
-      <c r="AG4" s="5">
-        <v>20</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>45</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>14</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>58</v>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="8">
+        <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1038,17 +1053,21 @@
       <c r="AE5" s="5">
         <v>56</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="8">
         <v>2</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="8">
         <v>2</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="8">
         <v>30</v>
       </c>
+      <c r="AL5" s="9"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1109,18 +1128,21 @@
       <c r="AE6" s="3">
         <v>0.75</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="8">
         <v>66</v>
       </c>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="5">
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8">
         <v>33</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="8">
         <v>33</v>
       </c>
+      <c r="AL6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1181,15 +1203,19 @@
       <c r="AE7" s="3">
         <v>39.4</v>
       </c>
-      <c r="AG7" s="5">
-        <v>12</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>8</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>33</v>
-      </c>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="8">
+        <v>31.6</v>
+      </c>
+      <c r="AL7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
